--- a/Development Economics/PovertySurveys/cluster results with names and summaries.xlsx
+++ b/Development Economics/PovertySurveys/cluster results with names and summaries.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-140" yWindow="1040" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="-140" yWindow="1040" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="df_imp_clust_res" sheetId="1" r:id="rId1"/>
@@ -26,11 +26,106 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+This group has the most balanced characteristics of those surveyed. 15% have internet, they have high rates of church, but low rates of baptism (could be an opportunity there). They have to travel far to work, but their households are more balanced, with a high rate of father particitpation. They are the most likely to have grandparents in the household, thus leave their kids at home less...quasai validating our thoughts on grandparents being great options for babysitters.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+This group is interesting in that they are very similar to group 0, but earn far less, fathers are still in only 43% of homes, and all other postive statistics are muted by this. Their families are the smallest, but they also have the highest likelihood of having a grandparent in the household. </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+Wealthiest group by far, with the highest rates of water, bank accounts, time in house. They had their first child later and have to travel farther to work. However, there is a spiritual gap with this group. We see that they have lower rates of baptism and go to church the least of all groups.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">
+This group is the poorest among the groups, but has much higher baptism and church rates. Only 67% have water access  1.6% have bank accounts or  internet. They do not leave their kids at home and they have short commutes to work. The only 34% of households have fathers and the families are smaller as a result. They are however established in the ocmmunity and have been there for a longer period.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>kmeans</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>internet</t>
   </si>
@@ -92,29 +187,38 @@
     <t>cluster_size</t>
   </si>
   <si>
-    <t>Wealthiest group by far, with the highest rates of water, bank accounts, time in house. They had their first child later and have to travel farther to work. However, there is a spiritual gap with this group. We see that they have lower rates of baptism and go to church the least of all groups.</t>
-  </si>
-  <si>
     <t>Better off, but not spiritually</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Poor, but not in spirit</t>
-  </si>
-  <si>
-    <t>This group is the poorest among the groups, but has much higher baptism and church rates. Only 67% have water access  1.6% have bank accounts or  internet. They do not leave their kids at home and they have short commutes to work. The only 34% of households have fathers and the families are smaller as a result. They are however established in the ocmmunity and have been there for a longer period.</t>
+    <t>Balanced and Stable</t>
+  </si>
+  <si>
+    <t>group_name</t>
+  </si>
+  <si>
+    <t>Small and Vulnerable</t>
+  </si>
+  <si>
+    <t>Poorest, but not in spirit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="171" formatCode="_-[$PEN]\ * #,##0.00_-;\-[$PEN]\ * #,##0.00_-;_-[$PEN]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,6 +240,33 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -151,7 +282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -159,31 +290,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="8">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -462,364 +631,363 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.15706806282722499</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.67539267015706805</v>
+      </c>
+      <c r="D2" s="6">
+        <v>3.1413612565444997E-2</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.90575916230366404</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0.38743455497382201</v>
+      </c>
+      <c r="G2" s="7">
+        <v>5.6282722513088999</v>
+      </c>
+      <c r="H2" s="7">
+        <v>13.0732984293193</v>
+      </c>
+      <c r="I2" s="7">
+        <v>21.1460571058455</v>
+      </c>
+      <c r="J2" s="7">
+        <v>1.3403141361256501</v>
+      </c>
+      <c r="K2" s="7">
+        <v>1.2454114112327399</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1.63604578933356</v>
+      </c>
+      <c r="M2" s="8">
+        <v>834.50261780104699</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0.51124523560209401</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0.69109947643978997</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0.95811518324607303</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>2.7696335078534</v>
+      </c>
+      <c r="R2" s="9">
+        <v>2.2146596858638699</v>
+      </c>
+      <c r="S2" s="9">
+        <v>2.87434554973821</v>
+      </c>
+      <c r="T2" s="7">
+        <v>4.1884816753926697E-2</v>
+      </c>
+      <c r="U2" s="9">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="6">
+        <v>6.6176470588235295E-2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.73529411764705799</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2.20588235294117E-2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.49264705882352899</v>
+      </c>
+      <c r="G3" s="7">
+        <v>4.5735294117647003</v>
+      </c>
+      <c r="H3" s="7">
+        <v>14.2830882352941</v>
+      </c>
+      <c r="I3" s="7">
+        <v>21.4776569132807</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1.2816641846612</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1.0981429645721901</v>
+      </c>
+      <c r="L3" s="7">
+        <v>2.2678464606181401</v>
+      </c>
+      <c r="M3" s="8">
+        <v>508.19852941176401</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0.53526433823529396</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0.46323529411764702</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0.97794117647058798</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>2.45588235294117</v>
+      </c>
+      <c r="R3" s="9">
+        <v>1.9485294117647001</v>
+      </c>
+      <c r="S3" s="9">
+        <v>2.5661764705882302</v>
+      </c>
+      <c r="T3" s="7">
+        <v>7.3529411764705802E-2</v>
+      </c>
+      <c r="U3" s="9">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="G4" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="H4" s="7">
+        <v>16.108333333333299</v>
+      </c>
+      <c r="I4" s="7">
+        <v>20.0833333333333</v>
+      </c>
+      <c r="J4" s="7">
+        <v>2.1666666666666599</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1.1880918560606</v>
+      </c>
+      <c r="L4" s="7">
+        <v>2.3879943502824799</v>
+      </c>
+      <c r="M4" s="8">
+        <v>1485.8333333333301</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0.51315250000000001</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="P4" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>3.4166666666666599</v>
+      </c>
+      <c r="R4" s="9">
+        <v>2.8333333333333299</v>
+      </c>
+      <c r="S4" s="9">
+        <v>3.75</v>
+      </c>
+      <c r="T4" s="7">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="U4" s="9">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.15706806282722499</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.67539267015706805</v>
-      </c>
-      <c r="E2" s="4">
-        <v>3.1413612565444997E-2</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0.90575916230366404</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0.38743455497382201</v>
-      </c>
-      <c r="H2" s="4">
-        <v>5.6282722513088999</v>
-      </c>
-      <c r="I2" s="4">
-        <v>13.0732984293193</v>
-      </c>
-      <c r="J2" s="4">
-        <v>21.1460571058455</v>
-      </c>
-      <c r="K2" s="4">
-        <v>1.3403141361256501</v>
-      </c>
-      <c r="L2" s="4">
-        <v>1.2454114112327399</v>
-      </c>
-      <c r="M2" s="4">
-        <v>1.63604578933356</v>
-      </c>
-      <c r="N2" s="4">
-        <v>834.50261780104699</v>
-      </c>
-      <c r="O2" s="4">
-        <v>0.51124523560209401</v>
-      </c>
-      <c r="P2" s="4">
-        <v>0.69109947643978997</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>0.95811518324607303</v>
-      </c>
-      <c r="R2" s="5">
-        <v>2.7696335078534</v>
-      </c>
-      <c r="S2" s="5">
-        <v>2.2146596858638699</v>
-      </c>
-      <c r="T2" s="5">
-        <v>2.87434554973821</v>
-      </c>
-      <c r="U2" s="4">
-        <v>4.1884816753926697E-2</v>
-      </c>
-      <c r="V2" s="6">
-        <v>191</v>
+    <row r="5" spans="1:21" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1.63934426229508E-2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.67213114754098302</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1.63934426229508E-2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.90163934426229497</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.393442622950819</v>
+      </c>
+      <c r="G5" s="7">
+        <v>5.0163934426229497</v>
+      </c>
+      <c r="H5" s="7">
+        <v>14.1803278688524</v>
+      </c>
+      <c r="I5" s="7">
+        <v>19.5735592360993</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1.0856609255032099</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1.08418871087928</v>
+      </c>
+      <c r="L5" s="7">
+        <v>2.14378994165045</v>
+      </c>
+      <c r="M5" s="8">
+        <v>217.29508196721301</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0.58837983606557298</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0.34426229508196698</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0.98360655737704905</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>2.6229508196721301</v>
+      </c>
+      <c r="R5" s="9">
+        <v>1.86885245901639</v>
+      </c>
+      <c r="S5" s="9">
+        <v>2.6885245901639299</v>
+      </c>
+      <c r="T5" s="7">
+        <v>3.2786885245901599E-2</v>
+      </c>
+      <c r="U5" s="9">
+        <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
-        <v>6.6176470588235295E-2</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.73529411764705799</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2.20588235294117E-2</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.875</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0.49264705882352899</v>
-      </c>
-      <c r="H3" s="4">
-        <v>4.5735294117647003</v>
-      </c>
-      <c r="I3" s="4">
-        <v>14.2830882352941</v>
-      </c>
-      <c r="J3" s="4">
-        <v>21.4776569132807</v>
-      </c>
-      <c r="K3" s="4">
-        <v>1.2816641846612</v>
-      </c>
-      <c r="L3" s="4">
-        <v>1.0981429645721901</v>
-      </c>
-      <c r="M3" s="4">
-        <v>2.2678464606181401</v>
-      </c>
-      <c r="N3" s="4">
-        <v>508.19852941176401</v>
-      </c>
-      <c r="O3" s="4">
-        <v>0.53526433823529396</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.46323529411764702</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>0.97794117647058798</v>
-      </c>
-      <c r="R3" s="5">
-        <v>2.45588235294117</v>
-      </c>
-      <c r="S3" s="5">
-        <v>1.9485294117647001</v>
-      </c>
-      <c r="T3" s="5">
-        <v>2.5661764705882302</v>
-      </c>
-      <c r="U3" s="4">
-        <v>7.3529411764705802E-2</v>
-      </c>
-      <c r="V3" s="6">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="H4" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="I4" s="4">
-        <v>16.108333333333299</v>
-      </c>
-      <c r="J4" s="4">
-        <v>20.0833333333333</v>
-      </c>
-      <c r="K4" s="4">
-        <v>2.1666666666666599</v>
-      </c>
-      <c r="L4" s="4">
-        <v>1.1880918560606</v>
-      </c>
-      <c r="M4" s="4">
-        <v>2.3879943502824799</v>
-      </c>
-      <c r="N4" s="4">
-        <v>1485.8333333333301</v>
-      </c>
-      <c r="O4" s="4">
-        <v>0.51315250000000001</v>
-      </c>
-      <c r="P4" s="4">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>1</v>
-      </c>
-      <c r="R4" s="5">
-        <v>3.4166666666666599</v>
-      </c>
-      <c r="S4" s="5">
-        <v>2.8333333333333299</v>
-      </c>
-      <c r="T4" s="5">
-        <v>3.75</v>
-      </c>
-      <c r="U4" s="4">
-        <v>0</v>
-      </c>
-      <c r="V4" s="6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" s="2" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1.63934426229508E-2</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.67213114754098302</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1.63934426229508E-2</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0.90163934426229497</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.393442622950819</v>
-      </c>
-      <c r="H5" s="4">
-        <v>5.0163934426229497</v>
-      </c>
-      <c r="I5" s="4">
-        <v>14.1803278688524</v>
-      </c>
-      <c r="J5" s="4">
-        <v>19.5735592360993</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1.0856609255032099</v>
-      </c>
-      <c r="L5" s="4">
-        <v>1.08418871087928</v>
-      </c>
-      <c r="M5" s="4">
-        <v>2.14378994165045</v>
-      </c>
-      <c r="N5" s="4">
-        <v>217.29508196721301</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.58837983606557298</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0.34426229508196698</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>0.98360655737704905</v>
-      </c>
-      <c r="R5" s="5">
-        <v>2.6229508196721301</v>
-      </c>
-      <c r="S5" s="5">
-        <v>1.86885245901639</v>
-      </c>
-      <c r="T5" s="5">
-        <v>2.6885245901639299</v>
-      </c>
-      <c r="U5" s="4">
-        <v>3.2786885245901599E-2</v>
-      </c>
-      <c r="V5" s="6">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -834,35 +1002,36 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C5">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF3456"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D2:D5">
     <cfRule type="colorScale" priority="55">
       <colorScale>
@@ -1339,35 +1508,35 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B5">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF3456"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <color theme="9" tint="0.39997558519241921"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="U2:U5">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFF3456"/>
-        <color theme="9" tint="0.39997558519241921"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color theme="5" tint="0.39997558519241921"/>
-        <color theme="9" tint="0.39997558519241921"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C5">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1396,5 +1565,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>